--- a/pabi_account_report/xlsx_template/report_cgd.xlsx
+++ b/pabi_account_report/xlsx_template/report_cgd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\801934\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="[$-107041E]mmmm\ yyyy;@"/>
+    <numFmt numFmtId="187" formatCode="[$-107041E]mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -134,106 +134,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -241,20 +159,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,7 +455,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,67 +469,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="12" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="str">
-        <f>TEXT(ROW(A4),"1")</f>
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
